--- a/medicine/Mort/Club_des_27/Club_des_27.xlsx
+++ b/medicine/Mort/Club_des_27/Club_des_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le club des 27, appelé aussi Forever 27 Club, 27 Club ou le Club 27, est le surnom donné à un ensemble d'artistes célèbres du rock et du blues qui ont comme point commun d'être morts à l'âge de 27 ans.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les événements déclencheurs de la création du « club » furent les morts rapprochées de Brian Jones, Jimi Hendrix, Janis Joplin et Jim Morrison entre juillet 1969 et juillet 1971[1]. Kurt Cobain fut par la suite ajouté à la liste à sa mort en 1994[2]. Pour Charles R. Cross, biographe de Kurt Cobain et de Jimi Hendrix, « ce n'est qu'à partir du suicide de Cobain que l'idée du club des 27 s'est imposée dans l'inconscient collectif »[3],[4].
-En 2009, Eric Segalstad et Josh Hunter consacrèrent un ouvrage au « club des 27 », The 27s: The Greatest Myth of Rock &amp; Roll, considérant que les musiciens qui deviennent stars vers 20 ans adoptent rapidement des comportements à risque pour rejoindre le panthéon des rockers superstars disparus[5]. Une étude, menée en 2011 en Australie par des statisticiens (dirigés par Adrian Barnett) de la santé sur 1 046 musiciens dont un album est arrivé numéro un des ventes au Royaume-Uni entre 1956 et 2007, précise qu'il ne semble pas exister de pic de mortalité vers cet âge chez ces musiciens ; ceux-ci ont cependant deux à trois fois plus de risques de mourir prématurément que la moyenne[6] entre la vingtaine et la trentaine[7]. Factuellement, ce regroupement selon l'âge de la mort n'a aucun fondement[8] : des années 1980 à la fin des années 2000, aucune mort n'est à constater parmi ces artistes, ce que les chercheurs interprètent comme une meilleure prise en charge des overdoses d'héroïne[7].
-Le « club des 27 » connaît un regain de notoriété en juillet 2011, après la mort d'Amy Winehouse à 27 ans, de nombreux médias y intégrant désormais la chanteuse[9],[10],[11],[12],[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les événements déclencheurs de la création du « club » furent les morts rapprochées de Brian Jones, Jimi Hendrix, Janis Joplin et Jim Morrison entre juillet 1969 et juillet 1971. Kurt Cobain fut par la suite ajouté à la liste à sa mort en 1994. Pour Charles R. Cross, biographe de Kurt Cobain et de Jimi Hendrix, « ce n'est qu'à partir du suicide de Cobain que l'idée du club des 27 s'est imposée dans l'inconscient collectif »,.
+En 2009, Eric Segalstad et Josh Hunter consacrèrent un ouvrage au « club des 27 », The 27s: The Greatest Myth of Rock &amp; Roll, considérant que les musiciens qui deviennent stars vers 20 ans adoptent rapidement des comportements à risque pour rejoindre le panthéon des rockers superstars disparus. Une étude, menée en 2011 en Australie par des statisticiens (dirigés par Adrian Barnett) de la santé sur 1 046 musiciens dont un album est arrivé numéro un des ventes au Royaume-Uni entre 1956 et 2007, précise qu'il ne semble pas exister de pic de mortalité vers cet âge chez ces musiciens ; ceux-ci ont cependant deux à trois fois plus de risques de mourir prématurément que la moyenne entre la vingtaine et la trentaine. Factuellement, ce regroupement selon l'âge de la mort n'a aucun fondement : des années 1980 à la fin des années 2000, aucune mort n'est à constater parmi ces artistes, ce que les chercheurs interprètent comme une meilleure prise en charge des overdoses d'héroïne.
+Le « club des 27 » connaît un regain de notoriété en juillet 2011, après la mort d'Amy Winehouse à 27 ans, de nombreux médias y intégrant désormais la chanteuse.
 </t>
         </is>
       </c>
@@ -542,13 +556,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Musiciens du club des 27</t>
+          <t>Dans la culture populaire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les plus souvent inclus
-Autres membres du club moins cités</t>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Au club 27 (À quel âge est-on immortel ?) par Mike Lécuyer sur l'album 5 (2017, Bluesiac BL8718)
+Club des 27 par Jok'Air sur l'album Jok’Travolta (2019, WM FR Affiliated/Play Two). Le morceau démarre par un extrait de Janis: Little Girl Blue, un documentaire sur la vie de Janis Joplin. Jok'Air fait aussi référence à Amy Whinehouse dans les paroles. Enfin, le clip est rempli d'extraits et de références à divers membre du Club des 27.</t>
         </is>
       </c>
     </row>
@@ -578,11 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Musique
-Au club 27 (À quel âge est-on immortel ?) par Mike Lécuyer sur l'album 5 (2017, Bluesiac BL8718)
-Club des 27 par Jok'Air sur l'album Jok’Travolta (2019, WM FR Affiliated/Play Two). Le morceau démarre par un extrait de Janis: Little Girl Blue, un documentaire sur la vie de Janis Joplin. Jok'Air fait aussi référence à Amy Whinehouse dans les paroles. Enfin, le clip est rempli d'extraits et de références à divers membre du Club des 27.
-Jeux vidéo
-Dans le jeu Hitman de 2016, une mission s'intitule « Club 27 ». L'un des objectifs est d'assassiner le chanteur et leader fictif d'un groupe de rock, Jordan Cross[24]. La mission se passe le jour des 27 ans de Jordan Cross. Le titre de la mission ainsi que l'ambiance sont clairement une référence au Club des 27[24]. Dans une discussion, deux personnages non-joueurs s'inquiètent de l'âge de Jordan Cross et de son risque de mourir dans l'année qui va suivre[réf. souhaitée].</t>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans le jeu Hitman de 2016, une mission s'intitule « Club 27 ». L'un des objectifs est d'assassiner le chanteur et leader fictif d'un groupe de rock, Jordan Cross. La mission se passe le jour des 27 ans de Jordan Cross. Le titre de la mission ainsi que l'ambiance sont clairement une référence au Club des 27. Dans une discussion, deux personnages non-joueurs s'inquiètent de l'âge de Jordan Cross et de son risque de mourir dans l'année qui va suivre[réf. souhaitée].</t>
         </is>
       </c>
     </row>
